--- a/data/pca/factorExposure/factorExposure_2013-01-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-01-25.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.00082679792976306</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001813465922914687</v>
+      </c>
+      <c r="C2">
+        <v>-0.03264011519078169</v>
+      </c>
+      <c r="D2">
+        <v>0.005321750684934002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.0003501400013769239</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006339739376349672</v>
+      </c>
+      <c r="C4">
+        <v>-0.08467206601975688</v>
+      </c>
+      <c r="D4">
+        <v>0.07935759422217423</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0003270055722409057</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01419737928454886</v>
+      </c>
+      <c r="C6">
+        <v>-0.1131575256428144</v>
+      </c>
+      <c r="D6">
+        <v>0.03462505285712927</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.002113201634813471</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.005087821563076859</v>
+      </c>
+      <c r="C7">
+        <v>-0.05739210192104482</v>
+      </c>
+      <c r="D7">
+        <v>0.03535207625090648</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0009459343485277458</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005811040505336802</v>
+      </c>
+      <c r="C8">
+        <v>-0.03828329332737485</v>
+      </c>
+      <c r="D8">
+        <v>0.04572416325782766</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.003321633164788839</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.004476362379842304</v>
+      </c>
+      <c r="C9">
+        <v>-0.07064611893521958</v>
+      </c>
+      <c r="D9">
+        <v>0.07103966757664382</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.002457661654801146</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.00538058350810024</v>
+      </c>
+      <c r="C10">
+        <v>-0.05746942472936495</v>
+      </c>
+      <c r="D10">
+        <v>-0.1971834310952168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.002495059625580182</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005777624632399123</v>
+      </c>
+      <c r="C11">
+        <v>-0.08052987945329899</v>
+      </c>
+      <c r="D11">
+        <v>0.0603688994143502</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.000555922809438177</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004081171370427013</v>
+      </c>
+      <c r="C12">
+        <v>-0.06421153101305045</v>
+      </c>
+      <c r="D12">
+        <v>0.04738692688013919</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.002502608584118472</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008786645954721889</v>
+      </c>
+      <c r="C13">
+        <v>-0.06616743119340084</v>
+      </c>
+      <c r="D13">
+        <v>0.06328855686561115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.0009932300392041136</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.001587438291187106</v>
+      </c>
+      <c r="C14">
+        <v>-0.04545526037763371</v>
+      </c>
+      <c r="D14">
+        <v>0.00816229545696537</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0007844522097782314</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.006057684205380853</v>
+      </c>
+      <c r="C15">
+        <v>-0.04265219822641671</v>
+      </c>
+      <c r="D15">
+        <v>0.02821448585494129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.0008701093131273306</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.005086260208028045</v>
+      </c>
+      <c r="C16">
+        <v>-0.06559967065253697</v>
+      </c>
+      <c r="D16">
+        <v>0.04667768163444119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>6.695730566790355e-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.00891904807257725</v>
+      </c>
+      <c r="C20">
+        <v>-0.06541196218392038</v>
+      </c>
+      <c r="D20">
+        <v>0.04289166202381857</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005706287698014664</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009991511003137421</v>
+      </c>
+      <c r="C21">
+        <v>-0.02139664887855594</v>
+      </c>
+      <c r="D21">
+        <v>0.03791266385474822</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01666710279056498</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.006748686793226931</v>
+      </c>
+      <c r="C22">
+        <v>-0.0943644579449447</v>
+      </c>
+      <c r="D22">
+        <v>0.1084454992290221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01696826412870614</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006566848301028445</v>
+      </c>
+      <c r="C23">
+        <v>-0.09515395769999821</v>
+      </c>
+      <c r="D23">
+        <v>0.1085384894371328</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001289834188628113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005468476713001363</v>
+      </c>
+      <c r="C24">
+        <v>-0.07647682153463824</v>
+      </c>
+      <c r="D24">
+        <v>0.06096849027733538</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.00386622718872038</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003032038660578443</v>
+      </c>
+      <c r="C25">
+        <v>-0.07858168087212523</v>
+      </c>
+      <c r="D25">
+        <v>0.0659036465723144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.004890424514466698</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003680615115841036</v>
+      </c>
+      <c r="C26">
+        <v>-0.04193853347803516</v>
+      </c>
+      <c r="D26">
+        <v>0.02070440713600548</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.005935589612992048</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.0009782777235457711</v>
+      </c>
+      <c r="C28">
+        <v>-0.106774059907158</v>
+      </c>
+      <c r="D28">
+        <v>-0.3157283649773625</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001053320096766541</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.003180890419296028</v>
+      </c>
+      <c r="C29">
+        <v>-0.04897673722314697</v>
+      </c>
+      <c r="D29">
+        <v>0.006003559383738134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003328245608410809</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.009546013991777036</v>
+      </c>
+      <c r="C30">
+        <v>-0.1426532786272305</v>
+      </c>
+      <c r="D30">
+        <v>0.09268400061147974</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.001115022688688496</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006251258643509458</v>
+      </c>
+      <c r="C31">
+        <v>-0.04453618623345341</v>
+      </c>
+      <c r="D31">
+        <v>0.03040637697457926</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0006784123538115228</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.004172928893107418</v>
+      </c>
+      <c r="C32">
+        <v>-0.04176641865500626</v>
+      </c>
+      <c r="D32">
+        <v>0.01825622698798026</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.002483592740249527</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.008378771247413408</v>
+      </c>
+      <c r="C33">
+        <v>-0.08591476944844154</v>
+      </c>
+      <c r="D33">
+        <v>0.0681153863922008</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004218924371041117</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.003982368621769244</v>
+      </c>
+      <c r="C34">
+        <v>-0.05788449543443705</v>
+      </c>
+      <c r="D34">
+        <v>0.0533538441969815</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.001809975969005989</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.004935355167216074</v>
+      </c>
+      <c r="C35">
+        <v>-0.04032053810956911</v>
+      </c>
+      <c r="D35">
+        <v>0.01727847540824663</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.003701868278645194</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001113474854865147</v>
+      </c>
+      <c r="C36">
+        <v>-0.02441429455238127</v>
+      </c>
+      <c r="D36">
+        <v>0.0221583364778989</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002249369124953515</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009525077382387188</v>
+      </c>
+      <c r="C38">
+        <v>-0.03540221660588043</v>
+      </c>
+      <c r="D38">
+        <v>0.01523151596871708</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01168213207140408</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.0005217889935059801</v>
+      </c>
+      <c r="C39">
+        <v>-0.1161949812203229</v>
+      </c>
+      <c r="D39">
+        <v>0.07068089243937967</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.009838473711852331</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.002662731584893369</v>
+      </c>
+      <c r="C40">
+        <v>-0.08849987255229697</v>
+      </c>
+      <c r="D40">
+        <v>0.01669514098173463</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0001643498917515996</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007241338676580381</v>
+      </c>
+      <c r="C41">
+        <v>-0.03805962206862869</v>
+      </c>
+      <c r="D41">
+        <v>0.0335821463957563</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002788092352250733</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.004031135067181188</v>
+      </c>
+      <c r="C43">
+        <v>-0.05338168441985774</v>
+      </c>
+      <c r="D43">
+        <v>0.02319555574607644</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.004092574905887359</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.003461396142114262</v>
+      </c>
+      <c r="C44">
+        <v>-0.1097118250379421</v>
+      </c>
+      <c r="D44">
+        <v>0.06792147991382776</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001236701340987827</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.002217627324469006</v>
+      </c>
+      <c r="C46">
+        <v>-0.03312582954570236</v>
+      </c>
+      <c r="D46">
+        <v>0.03306378232613414</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.0003752032849853817</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002704730684884542</v>
+      </c>
+      <c r="C47">
+        <v>-0.03731146005457619</v>
+      </c>
+      <c r="D47">
+        <v>0.02223828894604819</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003770994364562485</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006596149815753496</v>
+      </c>
+      <c r="C48">
+        <v>-0.03036090882239579</v>
+      </c>
+      <c r="D48">
+        <v>0.03189728842625078</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01202877891192699</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01534894352533896</v>
+      </c>
+      <c r="C49">
+        <v>-0.1840078558412006</v>
+      </c>
+      <c r="D49">
+        <v>0.01204135508247824</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.001566646588067892</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003620251955074459</v>
+      </c>
+      <c r="C50">
+        <v>-0.04345054442772121</v>
+      </c>
+      <c r="D50">
+        <v>0.03416344840830757</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0009617793604832047</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004489754741336036</v>
+      </c>
+      <c r="C51">
+        <v>-0.02713578924645509</v>
+      </c>
+      <c r="D51">
+        <v>0.01854126633906364</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0007954674344205874</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02085687553693491</v>
+      </c>
+      <c r="C53">
+        <v>-0.1690301839519643</v>
+      </c>
+      <c r="D53">
+        <v>0.02963725488789357</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001205698103908554</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.008708269852293296</v>
+      </c>
+      <c r="C54">
+        <v>-0.05495091542802882</v>
+      </c>
+      <c r="D54">
+        <v>0.04266360276214239</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.003859031161582949</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009456302158540403</v>
+      </c>
+      <c r="C55">
+        <v>-0.108109360166981</v>
+      </c>
+      <c r="D55">
+        <v>0.04055648062404478</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002859231417024283</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02008348077332775</v>
+      </c>
+      <c r="C56">
+        <v>-0.1741844034718087</v>
+      </c>
+      <c r="D56">
+        <v>0.0306786957770022</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.006774721072049201</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01976472316722055</v>
+      </c>
+      <c r="C58">
+        <v>-0.1110110333486281</v>
+      </c>
+      <c r="D58">
+        <v>0.05303434123577865</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006803146080011383</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.009680524302888724</v>
+      </c>
+      <c r="C59">
+        <v>-0.1618191971696656</v>
+      </c>
+      <c r="D59">
+        <v>-0.3151802985732125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.004030646152974974</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02388745871857328</v>
+      </c>
+      <c r="C60">
+        <v>-0.2218322262541315</v>
+      </c>
+      <c r="D60">
+        <v>0.0327003267093206</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01343017330389481</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001655718720217368</v>
+      </c>
+      <c r="C61">
+        <v>-0.09571979970042128</v>
+      </c>
+      <c r="D61">
+        <v>0.05718550518269716</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1636315162476963</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1448239203143419</v>
+      </c>
+      <c r="C62">
+        <v>-0.09223761136978766</v>
+      </c>
+      <c r="D62">
+        <v>0.04592577899422792</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.0008782545599041314</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006303051478563913</v>
+      </c>
+      <c r="C63">
+        <v>-0.05536426375107537</v>
+      </c>
+      <c r="D63">
+        <v>0.02428075547847558</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.0002914717824850845</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01542956717575408</v>
+      </c>
+      <c r="C64">
+        <v>-0.1058210439013744</v>
+      </c>
+      <c r="D64">
+        <v>0.05889181377240051</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.002917990594521734</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01797379193697789</v>
+      </c>
+      <c r="C65">
+        <v>-0.1226915534137073</v>
+      </c>
+      <c r="D65">
+        <v>0.02080096756956202</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.007544747147316302</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01315297476558598</v>
+      </c>
+      <c r="C66">
+        <v>-0.1600275775843625</v>
+      </c>
+      <c r="D66">
+        <v>0.1122472190777139</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.003564529400248015</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01569866322686251</v>
+      </c>
+      <c r="C67">
+        <v>-0.06621827723740147</v>
+      </c>
+      <c r="D67">
+        <v>0.02541198410378607</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.006519086883159227</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.000576607572632875</v>
+      </c>
+      <c r="C68">
+        <v>-0.08649815996210959</v>
+      </c>
+      <c r="D68">
+        <v>-0.2560952146266473</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.00211996163282294</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006209053124504328</v>
+      </c>
+      <c r="C69">
+        <v>-0.05068114535573943</v>
+      </c>
+      <c r="D69">
+        <v>0.03749728845626454</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.0003482353885019157</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.001901017709797411</v>
+      </c>
+      <c r="C70">
+        <v>-0.002361962290574633</v>
+      </c>
+      <c r="D70">
+        <v>0.003082588509989852</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.0006517049633411131</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.005861776235409687</v>
+      </c>
+      <c r="C71">
+        <v>-0.09644257033913629</v>
+      </c>
+      <c r="D71">
+        <v>-0.3062770042660487</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.003842106056615667</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01605142970277122</v>
+      </c>
+      <c r="C72">
+        <v>-0.1529869994442639</v>
+      </c>
+      <c r="D72">
+        <v>0.02278089965064695</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01148317696236526</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03085428156736647</v>
+      </c>
+      <c r="C73">
+        <v>-0.2795676769672621</v>
+      </c>
+      <c r="D73">
+        <v>0.05092444592941051</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.00461154688593906</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.001977376025702588</v>
+      </c>
+      <c r="C74">
+        <v>-0.1047383647311902</v>
+      </c>
+      <c r="D74">
+        <v>0.03607207234850808</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.002582761195818142</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01099207926747459</v>
+      </c>
+      <c r="C75">
+        <v>-0.125455564348726</v>
+      </c>
+      <c r="D75">
+        <v>0.02357228270906914</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.00942636578238799</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02177533923490698</v>
+      </c>
+      <c r="C76">
+        <v>-0.1487297271349796</v>
+      </c>
+      <c r="D76">
+        <v>0.06103596026423037</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.0008515407920243811</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02389303119730155</v>
+      </c>
+      <c r="C77">
+        <v>-0.1269114798109075</v>
+      </c>
+      <c r="D77">
+        <v>0.08968339229608023</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0004528742424300467</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01479282381988838</v>
+      </c>
+      <c r="C78">
+        <v>-0.09693433203993422</v>
+      </c>
+      <c r="D78">
+        <v>0.06895595749110149</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02282111381424412</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03767812008310066</v>
+      </c>
+      <c r="C79">
+        <v>-0.1561130452849395</v>
+      </c>
+      <c r="D79">
+        <v>0.03371505401665503</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006527815562524541</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01049024773779425</v>
+      </c>
+      <c r="C80">
+        <v>-0.04084037142171854</v>
+      </c>
+      <c r="D80">
+        <v>0.02924353347188179</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.001348474990369825</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01535683484474309</v>
+      </c>
+      <c r="C81">
+        <v>-0.1271804957546043</v>
+      </c>
+      <c r="D81">
+        <v>0.03989271343713219</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.005767264832298924</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.01980391555278564</v>
+      </c>
+      <c r="C82">
+        <v>-0.1400505127835554</v>
+      </c>
+      <c r="D82">
+        <v>0.04269504927879598</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.008138468712286039</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.0100655728618009</v>
+      </c>
+      <c r="C83">
+        <v>-0.05659190544934297</v>
+      </c>
+      <c r="D83">
+        <v>0.0576403563037476</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01343053994474601</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01172568459509629</v>
+      </c>
+      <c r="C84">
+        <v>-0.03741958852430263</v>
+      </c>
+      <c r="D84">
+        <v>-0.01155427420441449</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.0137029046748488</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02825577808895376</v>
+      </c>
+      <c r="C85">
+        <v>-0.1241735352613833</v>
+      </c>
+      <c r="D85">
+        <v>0.04556683285780669</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.001684142780206513</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.006079600548034735</v>
+      </c>
+      <c r="C86">
+        <v>-0.05101181731674934</v>
+      </c>
+      <c r="D86">
+        <v>0.0211177091079137</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.004028440076460985</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01021316437982701</v>
+      </c>
+      <c r="C87">
+        <v>-0.1288855222419614</v>
+      </c>
+      <c r="D87">
+        <v>0.0709284978279012</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01169917196637724</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002797633718927054</v>
+      </c>
+      <c r="C88">
+        <v>-0.06657218356462739</v>
+      </c>
+      <c r="D88">
+        <v>0.01384188230522666</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01407712266315808</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.001322911278405521</v>
+      </c>
+      <c r="C89">
+        <v>-0.1476555533156143</v>
+      </c>
+      <c r="D89">
+        <v>-0.3436406083203104</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002324338273760281</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.007045475875108953</v>
+      </c>
+      <c r="C90">
+        <v>-0.1218153372576171</v>
+      </c>
+      <c r="D90">
+        <v>-0.322324932882856</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0006526747903914335</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01046753449683951</v>
+      </c>
+      <c r="C91">
+        <v>-0.1021046616408708</v>
+      </c>
+      <c r="D91">
+        <v>0.01980698805438407</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.007920405813458518</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.0009830157867412195</v>
+      </c>
+      <c r="C92">
+        <v>-0.1362850871285064</v>
+      </c>
+      <c r="D92">
+        <v>-0.3285971777467281</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.0004056265309874981</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.004855182931608173</v>
+      </c>
+      <c r="C93">
+        <v>-0.1049818532053268</v>
+      </c>
+      <c r="D93">
+        <v>-0.3048145601724427</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.003297881738204023</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02255796361436578</v>
+      </c>
+      <c r="C94">
+        <v>-0.1473975563805772</v>
+      </c>
+      <c r="D94">
+        <v>0.05176081724240943</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.004217332761828186</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01652961601411376</v>
+      </c>
+      <c r="C95">
+        <v>-0.1264477874473343</v>
+      </c>
+      <c r="D95">
+        <v>0.0569979873415266</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-5.287156141903157e-07</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03605758704031791</v>
+      </c>
+      <c r="C97">
+        <v>-0.2126253339322013</v>
+      </c>
+      <c r="D97">
+        <v>-0.01276152013786245</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.00303346569070191</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03667936870215454</v>
+      </c>
+      <c r="C98">
+        <v>-0.2488691404568569</v>
+      </c>
+      <c r="D98">
+        <v>0.04884859316817541</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9848000727416524</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9821717828339148</v>
+      </c>
+      <c r="C99">
+        <v>0.1166317740554611</v>
+      </c>
+      <c r="D99">
+        <v>-0.02773116065423727</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0009585104521205045</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.003218378126477867</v>
+      </c>
+      <c r="C101">
+        <v>-0.04915892794722939</v>
+      </c>
+      <c r="D101">
+        <v>0.006116053384141881</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
